--- a/ExamenStand.xlsx
+++ b/ExamenStand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yaseen Abdel-Hamid\Desktop\School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2108596A-45F0-4236-BE2F-914639F0C582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD3A77-6474-4AAA-9C31-D2C624FEFB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3B6DDDEB-B644-4D53-A247-C0AC2817D4FA}"/>
   </bookViews>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,7 +372,7 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -710,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B327CE-C5FD-46E1-8F1D-9ABF0FB49032}">
-  <dimension ref="A2:J16"/>
+  <dimension ref="A2:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,8 +750,8 @@
     <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="4:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="4:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="4:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
@@ -752,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
@@ -763,7 +785,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D5" s="17" t="s">
         <v>10</v>
       </c>
@@ -773,8 +795,12 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">GetColorCount($C$5:$J$56,M5)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
@@ -784,8 +810,12 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">GetColorCount($C$5:$J$56,M6)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="17" t="s">
         <v>12</v>
       </c>
@@ -795,8 +825,12 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">GetColorCount($C$5:$J$56,M7)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="17" t="s">
         <v>13</v>
       </c>
@@ -806,8 +840,12 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">GetColorCount($C$5:$J$56,M8)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="17" t="s">
         <v>14</v>
       </c>
@@ -817,8 +855,12 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="2" t="e" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">GetColorCount($C$5:$J$56,M9)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="17" t="s">
         <v>15</v>
       </c>
@@ -829,7 +871,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="17" t="s">
         <v>16</v>
       </c>
@@ -840,7 +882,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
@@ -851,7 +893,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="17" t="s">
         <v>18</v>
       </c>
@@ -862,7 +904,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="4:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="17" t="s">
         <v>19</v>
       </c>
@@ -873,7 +915,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="4:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="17" t="s">
         <v>20</v>
       </c>
@@ -884,7 +926,7 @@
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="4:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="16" t="s">
         <v>7</v>
       </c>
